--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H2">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I2">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J2">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N2">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O2">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P2">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q2">
-        <v>10.32512205037444</v>
+        <v>16.36944595453222</v>
       </c>
       <c r="R2">
-        <v>92.92609845336999</v>
+        <v>147.32501359079</v>
       </c>
       <c r="S2">
-        <v>0.007561062616728516</v>
+        <v>0.01538639511419365</v>
       </c>
       <c r="T2">
-        <v>0.0076270119100548</v>
+        <v>0.01566913235756174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H3">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I3">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J3">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P3">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q3">
-        <v>0.3558414037966667</v>
+        <v>0.7610376468543333</v>
       </c>
       <c r="R3">
-        <v>3.20257263417</v>
+        <v>6.849338821689001</v>
       </c>
       <c r="S3">
-        <v>0.0002605818238859074</v>
+        <v>0.0007153342858274865</v>
       </c>
       <c r="T3">
-        <v>0.0002628546773206785</v>
+        <v>0.0007284791220649865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H4">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I4">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J4">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N4">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O4">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P4">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q4">
-        <v>0.1474719617583334</v>
+        <v>0.695838836952</v>
       </c>
       <c r="R4">
-        <v>0.8848317705500001</v>
+        <v>4.175033021712</v>
       </c>
       <c r="S4">
-        <v>0.0001079933710833098</v>
+        <v>0.000654050925784702</v>
       </c>
       <c r="T4">
-        <v>7.262354241382643E-05</v>
+        <v>0.0004440464210382121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>229.467361</v>
       </c>
       <c r="I5">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J5">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N5">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O5">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P5">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q5">
-        <v>1275.650542398594</v>
+        <v>945.6291305151077</v>
       </c>
       <c r="R5">
-        <v>11480.85488158735</v>
+        <v>8510.662174635969</v>
       </c>
       <c r="S5">
-        <v>0.9341558948244757</v>
+        <v>0.8888403110288788</v>
       </c>
       <c r="T5">
-        <v>0.9423038132114964</v>
+        <v>0.9051734584275773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>229.467361</v>
       </c>
       <c r="I6">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J6">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P6">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q6">
         <v>43.96357520486966</v>
@@ -818,10 +818,10 @@
         <v>395.672176843827</v>
       </c>
       <c r="S6">
-        <v>0.03219442282207383</v>
+        <v>0.0413233863023571</v>
       </c>
       <c r="T6">
-        <v>0.03247522983846672</v>
+        <v>0.04208273638033509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J7">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N7">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O7">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P7">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q7">
-        <v>18.21989968620083</v>
+        <v>40.197174430536</v>
       </c>
       <c r="R7">
-        <v>109.319398117205</v>
+        <v>241.183046583216</v>
       </c>
       <c r="S7">
-        <v>0.01334238972922173</v>
+        <v>0.03778317299072344</v>
       </c>
       <c r="T7">
-        <v>0.008972510040958333</v>
+        <v>0.02565164588960636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H8">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I8">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J8">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N8">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O8">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P8">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q8">
-        <v>16.11685169885783</v>
+        <v>14.944641705725</v>
       </c>
       <c r="R8">
-        <v>96.70111019314697</v>
+        <v>89.66785023434998</v>
       </c>
       <c r="S8">
-        <v>0.01180233262958592</v>
+        <v>0.01404715607131938</v>
       </c>
       <c r="T8">
-        <v>0.007936850157641655</v>
+        <v>0.009536855821663999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H9">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I9">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J9">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.724307</v>
       </c>
       <c r="O9">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P9">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q9">
-        <v>0.5554455536044999</v>
+        <v>0.6947965733474999</v>
       </c>
       <c r="R9">
-        <v>3.332673321626999</v>
+        <v>4.168779440085</v>
       </c>
       <c r="S9">
-        <v>0.0004067514737837654</v>
+        <v>0.000653071254287174</v>
       </c>
       <c r="T9">
-        <v>0.0002735328345795757</v>
+        <v>0.0004433813052114154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H10">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I10">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J10">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N10">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O10">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P10">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q10">
-        <v>0.23019425105125</v>
+        <v>0.63527269842</v>
       </c>
       <c r="R10">
-        <v>0.9207770042049999</v>
+        <v>2.54109079368</v>
       </c>
       <c r="S10">
-        <v>0.0001685707091613803</v>
+        <v>0.0005971220266281409</v>
       </c>
       <c r="T10">
-        <v>7.557378706801211E-05</v>
+        <v>0.0002702642749407671</v>
       </c>
     </row>
   </sheetData>
